--- a/Bicycle-Rental/asset/tour.xlsx
+++ b/Bicycle-Rental/asset/tour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D7B0D8-B604-465C-8087-1EE4B977EA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E6B60D-2A6F-4A5C-839A-6F9887B9D512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>destination</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>https://www.google.com/maps/d/embed?mid=1hBwlgLqp_fYZZ-hwy5mWe1dzxwQsF3X2&amp;ehbc=2E312F</t>
+  </si>
+  <si>
+    <t>10/2/2023</t>
   </si>
 </sst>
 </file>
@@ -219,11 +222,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -508,7 +512,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,8 +669,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
-        <v>45201</v>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G4">
         <v>3</v>

--- a/Bicycle-Rental/asset/tour.xlsx
+++ b/Bicycle-Rental/asset/tour.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle-Rental\Bicycle-Rental\asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Temp\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E6B60D-2A6F-4A5C-839A-6F9887B9D512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565EB1C1-5071-4487-B8A2-81C746D75E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,26 +511,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -571,7 +571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -612,7 +612,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -653,7 +653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -688,13 +688,13 @@
         <v>10</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -735,7 +735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -776,7 +776,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -817,7 +817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
